--- a/model/data/router.xlsx
+++ b/model/data/router.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Fourth Year\HocKyI\dacn\batdongsan\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727571ED-8179-4B7E-ADB8-1CBA22E83E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFC9A29-CC8C-4D2D-94A8-7827BC94FF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Tìm nhà cho thuê gần khu vực trung tâm Đà Nẵng, giá dưới 10 triệu/tháng</t>
   </si>
   <si>
-    <t>Nhà cấp 4 có dành cho người thu nhập thấp?</t>
-  </si>
-  <si>
     <t>Hôm nay thời tiết thế nào ở Hà Nội nhỉ?</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Bạn tìm giúp tôi một mảnh đất nông nghiệp ở Bình Dương giá khoảng 1 tỷ được không?</t>
   </si>
   <si>
-    <t>Bạn nghĩ làm thế nào để tiết kiệm chi phí mua nhà?</t>
-  </si>
-  <si>
     <t>Tôi có thể hỏi bạn vài câu về bất động sản không?</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>Bạn nghĩ sao về việc mua căn hộ studio thay vì căn 2 phòng ngủ?</t>
   </si>
   <si>
-    <t>Theo bạn, nên chọn chung cư tầng cao hay tầng thấp thì tốt hơn?</t>
-  </si>
-  <si>
     <t>Bạn có biết loại bất động sản nào phù hợp để đầu tư lâu dài không?</t>
   </si>
   <si>
@@ -340,6 +331,15 @@
   </si>
   <si>
     <t>Nhà ở Quận Hà Đông, thành phố Hà Nội có không?</t>
+  </si>
+  <si>
+    <t>Tôi muốn biết về các loại giấy tờ cần có khi chuyển nhượng bất động sản.</t>
+  </si>
+  <si>
+    <t>Bạn có thể giải thích sự khác biệt giữa sổ hồng và sổ đỏ không?</t>
+  </si>
+  <si>
+    <t>Bạn có thể cho tôi biết quy trình thẩm định giá trị bất động sản là như thế nào không?</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,8 +729,8 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+      <c r="A8" t="s">
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -818,15 +818,15 @@
     </row>
     <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
+      <c r="A20" t="s">
+        <v>102</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
